--- a/Day-2 Testing/User Stories 1 - Day 2.xlsx
+++ b/Day-2 Testing/User Stories 1 - Day 2.xlsx
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3.Click on the Admin Login Option
  4.Enter the valid username and password
  5.Click on the Login Button</t>
@@ -103,7 +103,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3.Click on the Admin Login Option
  4.Enter the invalid username and password
  5.Click on the Login Button</t>
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3.Click on the Admin Login Option
  4.Enter the invalid username 
  5.Click on the Login Button</t>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3.Click on the Admin Login Option
  4.Enter the invalid password 
  5.Click on the Login Button</t>
@@ -162,7 +162,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3.Click on the Admin Login Option
  4.Enter the valid username invalid password 
  5.Click on the Login Button</t>
@@ -191,7 +191,7 @@
   </si>
   <si>
     <t>1.Launch the browser
- 2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+ 2.Open the url:https://carrental.neohire.io/admin/dashboard.php
  3. Don't enter the admin credentials</t>
   </si>
   <si>
